--- a/19, 20, 21/1/19 - 27416.xlsx
+++ b/19, 20, 21/1/19 - 27416.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="113_{ACC611FE-96E3-41D6-848A-0A05AED3CFD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{8ACCD969-AFB0-43BA-9689-3BA26D059EE9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CD0FDF-DC5E-49E3-B579-A565F2C53780}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,7 +382,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,14 +403,14 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -420,11 +420,11 @@
       </c>
       <c r="D5">
         <f>B4</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <f>MAX(C5:D5) * 2 + MIN(C5:D5)</f>
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -434,11 +434,11 @@
       </c>
       <c r="D6">
         <f>B4+1</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:E8" si="0">MAX(C6:D6) * 2 + MIN(C6:D6)</f>
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -448,11 +448,11 @@
       </c>
       <c r="D7">
         <f>B4</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -461,12 +461,12 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <f>B4*2</f>
-        <v>36</v>
+        <f>B4+C8</f>
+        <v>28</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
